--- a/src/lab_05/data2/out/cities.xlsx
+++ b/src/lab_05/data2/out/cities.xlsx
@@ -421,9 +421,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -439,7 +439,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>language</t>
         </is>
       </c>
     </row>
@@ -456,41 +456,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12655050</t>
+          <t>Russian</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5384342</t>
+          <t>Japanese</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kazan</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>French</t>
         </is>
       </c>
     </row>
